--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.7019104114038</v>
+        <v>15.7022095</v>
       </c>
       <c r="H2">
-        <v>15.7019104114038</v>
+        <v>31.404419</v>
       </c>
       <c r="I2">
-        <v>0.4073854400092502</v>
+        <v>0.3956795113812137</v>
       </c>
       <c r="J2">
-        <v>0.4073854400092502</v>
+        <v>0.3301485836983984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N2">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O2">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P2">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q2">
-        <v>210.2494111722158</v>
+        <v>235.6494723190808</v>
       </c>
       <c r="R2">
-        <v>210.2494111722158</v>
+        <v>942.597889276323</v>
       </c>
       <c r="S2">
-        <v>0.02622213811143616</v>
+        <v>0.02770933053407667</v>
       </c>
       <c r="T2">
-        <v>0.02622213811143616</v>
+        <v>0.01646079152681915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.7019104114038</v>
+        <v>15.7022095</v>
       </c>
       <c r="H3">
-        <v>15.7019104114038</v>
+        <v>31.404419</v>
       </c>
       <c r="I3">
-        <v>0.4073854400092502</v>
+        <v>0.3956795113812137</v>
       </c>
       <c r="J3">
-        <v>0.4073854400092502</v>
+        <v>0.3301485836983984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N3">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P3">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q3">
-        <v>456.3642057680911</v>
+        <v>480.143952142883</v>
       </c>
       <c r="R3">
-        <v>456.3642057680911</v>
+        <v>2880.863712857298</v>
       </c>
       <c r="S3">
-        <v>0.05691737810844418</v>
+        <v>0.05645871956738414</v>
       </c>
       <c r="T3">
-        <v>0.05691737810844418</v>
+        <v>0.05030914829538791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.7019104114038</v>
+        <v>15.7022095</v>
       </c>
       <c r="H4">
-        <v>15.7019104114038</v>
+        <v>31.404419</v>
       </c>
       <c r="I4">
-        <v>0.4073854400092502</v>
+        <v>0.3956795113812137</v>
       </c>
       <c r="J4">
-        <v>0.4073854400092502</v>
+        <v>0.3301485836983984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N4">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O4">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P4">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q4">
-        <v>953.5849160124823</v>
+        <v>979.1168110183837</v>
       </c>
       <c r="R4">
-        <v>953.5849160124823</v>
+        <v>5874.700866110302</v>
       </c>
       <c r="S4">
-        <v>0.1189303467213036</v>
+        <v>0.1151314750717678</v>
       </c>
       <c r="T4">
-        <v>0.1189303467213036</v>
+        <v>0.1025911763007537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.7019104114038</v>
+        <v>15.7022095</v>
       </c>
       <c r="H5">
-        <v>15.7019104114038</v>
+        <v>31.404419</v>
       </c>
       <c r="I5">
-        <v>0.4073854400092502</v>
+        <v>0.3956795113812137</v>
       </c>
       <c r="J5">
-        <v>0.4073854400092502</v>
+        <v>0.3301485836983984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N5">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O5">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P5">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q5">
-        <v>1104.69583726274</v>
+        <v>1123.038243822414</v>
       </c>
       <c r="R5">
-        <v>1104.69583726274</v>
+        <v>6738.229462934481</v>
       </c>
       <c r="S5">
-        <v>0.1377767797509066</v>
+        <v>0.1320547743826394</v>
       </c>
       <c r="T5">
-        <v>0.1377767797509066</v>
+        <v>0.1176711636118674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7019104114038</v>
+        <v>15.7022095</v>
       </c>
       <c r="H6">
-        <v>15.7019104114038</v>
+        <v>31.404419</v>
       </c>
       <c r="I6">
-        <v>0.4073854400092502</v>
+        <v>0.3956795113812137</v>
       </c>
       <c r="J6">
-        <v>0.4073854400092502</v>
+        <v>0.3301485836983984</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N6">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O6">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P6">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q6">
-        <v>136.7980194047397</v>
+        <v>140.4026514001972</v>
       </c>
       <c r="R6">
-        <v>136.7980194047397</v>
+        <v>842.4159084011831</v>
       </c>
       <c r="S6">
-        <v>0.01706133937879986</v>
+        <v>0.01650953612253767</v>
       </c>
       <c r="T6">
-        <v>0.01706133937879986</v>
+        <v>0.01471129185077433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.7019104114038</v>
+        <v>15.7022095</v>
       </c>
       <c r="H7">
-        <v>15.7019104114038</v>
+        <v>31.404419</v>
       </c>
       <c r="I7">
-        <v>0.4073854400092502</v>
+        <v>0.3956795113812137</v>
       </c>
       <c r="J7">
-        <v>0.4073854400092502</v>
+        <v>0.3301485836983984</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N7">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O7">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P7">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q7">
-        <v>404.7288502527517</v>
+        <v>406.6405983388897</v>
       </c>
       <c r="R7">
-        <v>404.7288502527517</v>
+        <v>1626.562393355559</v>
       </c>
       <c r="S7">
-        <v>0.05047745793835971</v>
+        <v>0.04781567570280803</v>
       </c>
       <c r="T7">
-        <v>0.05047745793835971</v>
+        <v>0.02840501211279596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.30306142448697</v>
+        <v>3.514108333333333</v>
       </c>
       <c r="H8">
-        <v>3.30306142448697</v>
+        <v>10.542325</v>
       </c>
       <c r="I8">
-        <v>0.08569779705372185</v>
+        <v>0.08855191164491751</v>
       </c>
       <c r="J8">
-        <v>0.08569779705372185</v>
+        <v>0.1108294239622207</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N8">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O8">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P8">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q8">
-        <v>44.22816723369385</v>
+        <v>52.7376592715875</v>
       </c>
       <c r="R8">
-        <v>44.22816723369385</v>
+        <v>316.425955629525</v>
       </c>
       <c r="S8">
-        <v>0.005516101582171165</v>
+        <v>0.00620126672879295</v>
       </c>
       <c r="T8">
-        <v>0.005516101582171165</v>
+        <v>0.005525815141906421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.30306142448697</v>
+        <v>3.514108333333333</v>
       </c>
       <c r="H9">
-        <v>3.30306142448697</v>
+        <v>10.542325</v>
       </c>
       <c r="I9">
-        <v>0.08569779705372185</v>
+        <v>0.08855191164491751</v>
       </c>
       <c r="J9">
-        <v>0.08569779705372185</v>
+        <v>0.1108294239622207</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N9">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P9">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q9">
-        <v>96.00099377044208</v>
+        <v>107.4548052250167</v>
       </c>
       <c r="R9">
-        <v>96.00099377044208</v>
+        <v>967.0932470251499</v>
       </c>
       <c r="S9">
-        <v>0.01197316702790518</v>
+        <v>0.01263529549271867</v>
       </c>
       <c r="T9">
-        <v>0.01197316702790518</v>
+        <v>0.01688855927578776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.30306142448697</v>
+        <v>3.514108333333333</v>
       </c>
       <c r="H10">
-        <v>3.30306142448697</v>
+        <v>10.542325</v>
       </c>
       <c r="I10">
-        <v>0.08569779705372185</v>
+        <v>0.08855191164491751</v>
       </c>
       <c r="J10">
-        <v>0.08569779705372185</v>
+        <v>0.1108294239622207</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N10">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O10">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P10">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q10">
-        <v>200.5965814685781</v>
+        <v>219.1234644338722</v>
       </c>
       <c r="R10">
-        <v>200.5965814685781</v>
+        <v>1972.11117990485</v>
       </c>
       <c r="S10">
-        <v>0.02501824492455997</v>
+        <v>0.02576608572052602</v>
       </c>
       <c r="T10">
-        <v>0.02501824492455997</v>
+        <v>0.03443940557202613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.30306142448697</v>
+        <v>3.514108333333333</v>
       </c>
       <c r="H11">
-        <v>3.30306142448697</v>
+        <v>10.542325</v>
       </c>
       <c r="I11">
-        <v>0.08569779705372185</v>
+        <v>0.08855191164491751</v>
       </c>
       <c r="J11">
-        <v>0.08569779705372185</v>
+        <v>0.1108294239622207</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N11">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O11">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P11">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q11">
-        <v>232.3843475252431</v>
+        <v>251.3326580739083</v>
       </c>
       <c r="R11">
-        <v>232.3843475252431</v>
+        <v>2261.993922665175</v>
       </c>
       <c r="S11">
-        <v>0.02898278963907113</v>
+        <v>0.02955347036444051</v>
       </c>
       <c r="T11">
-        <v>0.02898278963907113</v>
+        <v>0.03950169082651966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.30306142448697</v>
+        <v>3.514108333333333</v>
       </c>
       <c r="H12">
-        <v>3.30306142448697</v>
+        <v>10.542325</v>
       </c>
       <c r="I12">
-        <v>0.08569779705372185</v>
+        <v>0.08855191164491751</v>
       </c>
       <c r="J12">
-        <v>0.08569779705372185</v>
+        <v>0.1108294239622207</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N12">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O12">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P12">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q12">
-        <v>28.77689714200953</v>
+        <v>31.42170070444722</v>
       </c>
       <c r="R12">
-        <v>28.77689714200953</v>
+        <v>282.795306340025</v>
       </c>
       <c r="S12">
-        <v>0.003589031555756789</v>
+        <v>0.003694785658520052</v>
       </c>
       <c r="T12">
-        <v>0.003589031555756789</v>
+        <v>0.004938515813991478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.30306142448697</v>
+        <v>3.514108333333333</v>
       </c>
       <c r="H13">
-        <v>3.30306142448697</v>
+        <v>10.542325</v>
       </c>
       <c r="I13">
-        <v>0.08569779705372185</v>
+        <v>0.08855191164491751</v>
       </c>
       <c r="J13">
-        <v>0.08569779705372185</v>
+        <v>0.1108294239622207</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N13">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O13">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P13">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q13">
-        <v>85.13895555511003</v>
+        <v>91.0049706886375</v>
       </c>
       <c r="R13">
-        <v>85.13895555511003</v>
+        <v>546.029824131825</v>
       </c>
       <c r="S13">
-        <v>0.01061846232425761</v>
+        <v>0.01070100767991931</v>
       </c>
       <c r="T13">
-        <v>0.01061846232425761</v>
+        <v>0.009535437331989223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.48627461695758</v>
+        <v>0.5630473333333333</v>
       </c>
       <c r="H14">
-        <v>0.48627461695758</v>
+        <v>1.689142</v>
       </c>
       <c r="I14">
-        <v>0.0126163755622194</v>
+        <v>0.01418821304975129</v>
       </c>
       <c r="J14">
-        <v>0.0126163755622194</v>
+        <v>0.01775762318562493</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N14">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O14">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P14">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q14">
-        <v>6.511242849091349</v>
+        <v>8.449881336169</v>
       </c>
       <c r="R14">
-        <v>6.511242849091349</v>
+        <v>50.699288017014</v>
       </c>
       <c r="S14">
-        <v>0.0008120769913886794</v>
+        <v>0.0009935967715666877</v>
       </c>
       <c r="T14">
-        <v>0.0008120769913886794</v>
+        <v>0.000885372670680338</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.48627461695758</v>
+        <v>0.5630473333333333</v>
       </c>
       <c r="H15">
-        <v>0.48627461695758</v>
+        <v>1.689142</v>
       </c>
       <c r="I15">
-        <v>0.0126163755622194</v>
+        <v>0.01418821304975129</v>
       </c>
       <c r="J15">
-        <v>0.0126163755622194</v>
+        <v>0.01775762318562493</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N15">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P15">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q15">
-        <v>14.13320567616132</v>
+        <v>17.21692554606267</v>
       </c>
       <c r="R15">
-        <v>14.13320567616132</v>
+        <v>154.952329914564</v>
       </c>
       <c r="S15">
-        <v>0.001762682088531862</v>
+        <v>0.002024487795544323</v>
       </c>
       <c r="T15">
-        <v>0.001762682088531862</v>
+        <v>0.002705966168963932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.48627461695758</v>
+        <v>0.5630473333333333</v>
       </c>
       <c r="H16">
-        <v>0.48627461695758</v>
+        <v>1.689142</v>
       </c>
       <c r="I16">
-        <v>0.0126163755622194</v>
+        <v>0.01418821304975129</v>
       </c>
       <c r="J16">
-        <v>0.0126163755622194</v>
+        <v>0.01775762318562493</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N16">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O16">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P16">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q16">
-        <v>29.53170204268407</v>
+        <v>35.10901503802622</v>
       </c>
       <c r="R16">
-        <v>29.53170204268407</v>
+        <v>315.981135342236</v>
       </c>
       <c r="S16">
-        <v>0.003683170218225929</v>
+        <v>0.004128366139930306</v>
       </c>
       <c r="T16">
-        <v>0.003683170218225929</v>
+        <v>0.005518047148683365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.48627461695758</v>
+        <v>0.5630473333333333</v>
       </c>
       <c r="H17">
-        <v>0.48627461695758</v>
+        <v>1.689142</v>
       </c>
       <c r="I17">
-        <v>0.0126163755622194</v>
+        <v>0.01418821304975129</v>
       </c>
       <c r="J17">
-        <v>0.0126163755622194</v>
+        <v>0.01775762318562493</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N17">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O17">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P17">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q17">
-        <v>34.21147688687814</v>
+        <v>40.26972690789533</v>
       </c>
       <c r="R17">
-        <v>34.21147688687814</v>
+        <v>362.427542171058</v>
       </c>
       <c r="S17">
-        <v>0.004266827987399732</v>
+        <v>0.004735199117683412</v>
       </c>
       <c r="T17">
-        <v>0.004266827987399732</v>
+        <v>0.006329150832106681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.48627461695758</v>
+        <v>0.5630473333333333</v>
       </c>
       <c r="H18">
-        <v>0.48627461695758</v>
+        <v>1.689142</v>
       </c>
       <c r="I18">
-        <v>0.0126163755622194</v>
+        <v>0.01418821304975129</v>
       </c>
       <c r="J18">
-        <v>0.0126163755622194</v>
+        <v>0.01775762318562493</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N18">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O18">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P18">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q18">
-        <v>4.236516624007931</v>
+        <v>5.034535965388223</v>
       </c>
       <c r="R18">
-        <v>4.236516624007931</v>
+        <v>45.310823688494</v>
       </c>
       <c r="S18">
-        <v>0.0005283749590867424</v>
+        <v>0.0005919963230884912</v>
       </c>
       <c r="T18">
-        <v>0.0005283749590867424</v>
+        <v>0.0007912727485708506</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.48627461695758</v>
+        <v>0.5630473333333333</v>
       </c>
       <c r="H19">
-        <v>0.48627461695758</v>
+        <v>1.689142</v>
       </c>
       <c r="I19">
-        <v>0.0126163755622194</v>
+        <v>0.01418821304975129</v>
       </c>
       <c r="J19">
-        <v>0.0126163755622194</v>
+        <v>0.01775762318562493</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N19">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O19">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P19">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q19">
-        <v>12.53410326971438</v>
+        <v>14.581253964277</v>
       </c>
       <c r="R19">
-        <v>12.53410326971438</v>
+        <v>87.48752378566199</v>
       </c>
       <c r="S19">
-        <v>0.001563243317586458</v>
+        <v>0.001714566901938069</v>
       </c>
       <c r="T19">
-        <v>0.001563243317586458</v>
+        <v>0.001527813616619763</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.04358432331247</v>
+        <v>1.051292</v>
       </c>
       <c r="H20">
-        <v>1.04358432331247</v>
+        <v>3.153876</v>
       </c>
       <c r="I20">
-        <v>0.02707575368858554</v>
+        <v>0.02649147592120579</v>
       </c>
       <c r="J20">
-        <v>0.02707575368858554</v>
+        <v>0.03315608846514148</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N20">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O20">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P20">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q20">
-        <v>13.97364930356814</v>
+        <v>15.777168496782</v>
       </c>
       <c r="R20">
-        <v>13.97364930356814</v>
+        <v>94.66301098069199</v>
       </c>
       <c r="S20">
-        <v>0.001742782345577191</v>
+        <v>0.001855190985436191</v>
       </c>
       <c r="T20">
-        <v>0.001742782345577191</v>
+        <v>0.001653120706911925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.04358432331247</v>
+        <v>1.051292</v>
       </c>
       <c r="H21">
-        <v>1.04358432331247</v>
+        <v>3.153876</v>
       </c>
       <c r="I21">
-        <v>0.02707575368858554</v>
+        <v>0.02649147592120579</v>
       </c>
       <c r="J21">
-        <v>0.02707575368858554</v>
+        <v>0.03315608846514148</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N21">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P21">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q21">
-        <v>30.33099275070616</v>
+        <v>32.146526623288</v>
       </c>
       <c r="R21">
-        <v>30.33099275070616</v>
+        <v>289.318739609592</v>
       </c>
       <c r="S21">
-        <v>0.00378285711494582</v>
+        <v>0.003780015813152563</v>
       </c>
       <c r="T21">
-        <v>0.00378285711494582</v>
+        <v>0.005052435945058077</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.04358432331247</v>
+        <v>1.051292</v>
       </c>
       <c r="H22">
-        <v>1.04358432331247</v>
+        <v>3.153876</v>
       </c>
       <c r="I22">
-        <v>0.02707575368858554</v>
+        <v>0.02649147592120579</v>
       </c>
       <c r="J22">
-        <v>0.02707575368858554</v>
+        <v>0.03315608846514148</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N22">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O22">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P22">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q22">
-        <v>63.37740078908625</v>
+        <v>65.55368341564532</v>
       </c>
       <c r="R22">
-        <v>63.37740078908625</v>
+        <v>589.983150740808</v>
       </c>
       <c r="S22">
-        <v>0.0079043786490037</v>
+        <v>0.00770826543176289</v>
       </c>
       <c r="T22">
-        <v>0.0079043786490037</v>
+        <v>0.01030300381442229</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.04358432331247</v>
+        <v>1.051292</v>
       </c>
       <c r="H23">
-        <v>1.04358432331247</v>
+        <v>3.153876</v>
       </c>
       <c r="I23">
-        <v>0.02707575368858554</v>
+        <v>0.02649147592120579</v>
       </c>
       <c r="J23">
-        <v>0.02707575368858554</v>
+        <v>0.03315608846514148</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N23">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O23">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P23">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q23">
-        <v>73.42057288510995</v>
+        <v>75.189489824636</v>
       </c>
       <c r="R23">
-        <v>73.42057288510995</v>
+        <v>676.705408421724</v>
       </c>
       <c r="S23">
-        <v>0.00915695502631941</v>
+        <v>0.00884131165555228</v>
       </c>
       <c r="T23">
-        <v>0.00915695502631941</v>
+        <v>0.01181745342295751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.04358432331247</v>
+        <v>1.051292</v>
       </c>
       <c r="H24">
-        <v>1.04358432331247</v>
+        <v>3.153876</v>
       </c>
       <c r="I24">
-        <v>0.02707575368858554</v>
+        <v>0.02649147592120579</v>
       </c>
       <c r="J24">
-        <v>0.02707575368858554</v>
+        <v>0.03315608846514148</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N24">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O24">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P24">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q24">
-        <v>9.091904409752535</v>
+        <v>9.400217478681332</v>
       </c>
       <c r="R24">
-        <v>9.091904409752535</v>
+        <v>84.601957308132</v>
       </c>
       <c r="S24">
-        <v>0.001133935033631199</v>
+        <v>0.001105344012212732</v>
       </c>
       <c r="T24">
-        <v>0.001133935033631199</v>
+        <v>0.001477422342924183</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.04358432331247</v>
+        <v>1.051292</v>
       </c>
       <c r="H25">
-        <v>1.04358432331247</v>
+        <v>3.153876</v>
       </c>
       <c r="I25">
-        <v>0.02707575368858554</v>
+        <v>0.02649147592120579</v>
       </c>
       <c r="J25">
-        <v>0.02707575368858554</v>
+        <v>0.03315608846514148</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N25">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O25">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P25">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q25">
-        <v>26.8991907512922</v>
+        <v>27.225340988406</v>
       </c>
       <c r="R25">
-        <v>26.8991907512922</v>
+        <v>163.352045930436</v>
       </c>
       <c r="S25">
-        <v>0.003354845519108222</v>
+        <v>0.003201348023089136</v>
       </c>
       <c r="T25">
-        <v>0.003354845519108222</v>
+        <v>0.002852652232867498</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0649142465609</v>
+        <v>10.625307</v>
       </c>
       <c r="H26">
-        <v>10.0649142465609</v>
+        <v>31.875921</v>
       </c>
       <c r="I26">
-        <v>0.2611337991084617</v>
+        <v>0.2677467958910744</v>
       </c>
       <c r="J26">
-        <v>0.2611337991084617</v>
+        <v>0.3351053930414072</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N26">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O26">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P26">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q26">
-        <v>134.7697342803197</v>
+        <v>159.4583225869095</v>
       </c>
       <c r="R26">
-        <v>134.7697342803197</v>
+        <v>956.7499355214571</v>
       </c>
       <c r="S26">
-        <v>0.01680837328312624</v>
+        <v>0.01875023662682876</v>
       </c>
       <c r="T26">
-        <v>0.01680837328312624</v>
+        <v>0.01670793178203222</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.0649142465609</v>
+        <v>10.625307</v>
       </c>
       <c r="H27">
-        <v>10.0649142465609</v>
+        <v>31.875921</v>
       </c>
       <c r="I27">
-        <v>0.2611337991084617</v>
+        <v>0.2677467958910744</v>
       </c>
       <c r="J27">
-        <v>0.2611337991084617</v>
+        <v>0.3351053930414072</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N27">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P27">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q27">
-        <v>292.5291557465368</v>
+        <v>324.901848730998</v>
       </c>
       <c r="R27">
-        <v>292.5291557465368</v>
+        <v>2924.116638578982</v>
       </c>
       <c r="S27">
-        <v>0.03648400193294422</v>
+        <v>0.03820425579154091</v>
       </c>
       <c r="T27">
-        <v>0.03648400193294422</v>
+        <v>0.0510644835251074</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.0649142465609</v>
+        <v>10.625307</v>
       </c>
       <c r="H28">
-        <v>10.0649142465609</v>
+        <v>31.875921</v>
       </c>
       <c r="I28">
-        <v>0.2611337991084617</v>
+        <v>0.2677467958910744</v>
       </c>
       <c r="J28">
-        <v>0.2611337991084617</v>
+        <v>0.3351053930414072</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N28">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O28">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P28">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q28">
-        <v>611.2473039910526</v>
+        <v>662.5447651766021</v>
       </c>
       <c r="R28">
-        <v>611.2473039910526</v>
+        <v>5962.902886589418</v>
       </c>
       <c r="S28">
-        <v>0.07623427402784798</v>
+        <v>0.07790669637928213</v>
       </c>
       <c r="T28">
-        <v>0.07623427402784798</v>
+        <v>0.1041314673282094</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.0649142465609</v>
+        <v>10.625307</v>
       </c>
       <c r="H29">
-        <v>10.0649142465609</v>
+        <v>31.875921</v>
       </c>
       <c r="I29">
-        <v>0.2611337991084617</v>
+        <v>0.2677467958910744</v>
       </c>
       <c r="J29">
-        <v>0.2611337991084617</v>
+        <v>0.3351053930414072</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N29">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O29">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P29">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q29">
-        <v>708.1093051267915</v>
+        <v>759.9329325821311</v>
       </c>
       <c r="R29">
-        <v>708.1093051267915</v>
+        <v>6839.396393239179</v>
       </c>
       <c r="S29">
-        <v>0.08831482520452152</v>
+        <v>0.08935828544583353</v>
       </c>
       <c r="T29">
-        <v>0.08831482520452152</v>
+        <v>0.1194378636735792</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.0649142465609</v>
+        <v>10.625307</v>
       </c>
       <c r="H30">
-        <v>10.0649142465609</v>
+        <v>31.875921</v>
       </c>
       <c r="I30">
-        <v>0.2611337991084617</v>
+        <v>0.2677467958910744</v>
       </c>
       <c r="J30">
-        <v>0.2611337991084617</v>
+        <v>0.3351053930414072</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N30">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O30">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P30">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q30">
-        <v>87.68744046635939</v>
+        <v>95.007092775133</v>
       </c>
       <c r="R30">
-        <v>87.68744046635939</v>
+        <v>855.0638349761971</v>
       </c>
       <c r="S30">
-        <v>0.01093630732056513</v>
+        <v>0.01117160548198981</v>
       </c>
       <c r="T30">
-        <v>0.01093630732056513</v>
+        <v>0.01493216533772608</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.0649142465609</v>
+        <v>10.625307</v>
       </c>
       <c r="H31">
-        <v>10.0649142465609</v>
+        <v>31.875921</v>
       </c>
       <c r="I31">
-        <v>0.2611337991084617</v>
+        <v>0.2677467958910744</v>
       </c>
       <c r="J31">
-        <v>0.2611337991084617</v>
+        <v>0.3351053930414072</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N31">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O31">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P31">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q31">
-        <v>259.4309268217856</v>
+        <v>275.1638994508635</v>
       </c>
       <c r="R31">
-        <v>259.4309268217856</v>
+        <v>1650.983396705181</v>
       </c>
       <c r="S31">
-        <v>0.03235601733945658</v>
+        <v>0.03235571616559924</v>
       </c>
       <c r="T31">
-        <v>0.03235601733945658</v>
+        <v>0.02883148139475298</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.94338605002174</v>
+        <v>8.228197000000002</v>
       </c>
       <c r="H32">
-        <v>7.94338605002174</v>
+        <v>16.456394</v>
       </c>
       <c r="I32">
-        <v>0.2060908345777612</v>
+        <v>0.2073420921118374</v>
       </c>
       <c r="J32">
-        <v>0.2060908345777612</v>
+        <v>0.1730028876472073</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N32">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O32">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P32">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q32">
-        <v>106.362359481922</v>
+        <v>123.4839135974745</v>
       </c>
       <c r="R32">
-        <v>106.362359481922</v>
+        <v>493.9356543898981</v>
       </c>
       <c r="S32">
-        <v>0.01326542825800669</v>
+        <v>0.01452011134945678</v>
       </c>
       <c r="T32">
-        <v>0.01326542825800669</v>
+        <v>0.008625705538994291</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.94338605002174</v>
+        <v>8.228197000000002</v>
       </c>
       <c r="H33">
-        <v>7.94338605002174</v>
+        <v>16.456394</v>
       </c>
       <c r="I33">
-        <v>0.2060908345777612</v>
+        <v>0.2073420921118374</v>
       </c>
       <c r="J33">
-        <v>0.2060908345777612</v>
+        <v>0.1730028876472073</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N33">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O33">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P33">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q33">
-        <v>230.8685357926082</v>
+        <v>251.602745880458</v>
       </c>
       <c r="R33">
-        <v>230.8685357926082</v>
+        <v>1509.616475282748</v>
       </c>
       <c r="S33">
-        <v>0.02879373881423182</v>
+        <v>0.02958522919772479</v>
       </c>
       <c r="T33">
-        <v>0.02879373881423182</v>
+        <v>0.02636276016293541</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.94338605002174</v>
+        <v>8.228197000000002</v>
       </c>
       <c r="H34">
-        <v>7.94338605002174</v>
+        <v>16.456394</v>
       </c>
       <c r="I34">
-        <v>0.2060908345777612</v>
+        <v>0.2073420921118374</v>
       </c>
       <c r="J34">
-        <v>0.2060908345777612</v>
+        <v>0.1730028876472073</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N34">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O34">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P34">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q34">
-        <v>482.4058296666528</v>
+        <v>513.0721257458088</v>
       </c>
       <c r="R34">
-        <v>482.4058296666528</v>
+        <v>3078.432754474853</v>
       </c>
       <c r="S34">
-        <v>0.0601652685767548</v>
+        <v>0.060330646957111</v>
       </c>
       <c r="T34">
-        <v>0.0601652685767548</v>
+        <v>0.05375933935057566</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.94338605002174</v>
+        <v>8.228197000000002</v>
       </c>
       <c r="H35">
-        <v>7.94338605002174</v>
+        <v>16.456394</v>
       </c>
       <c r="I35">
-        <v>0.2060908345777612</v>
+        <v>0.2073420921118374</v>
       </c>
       <c r="J35">
-        <v>0.2060908345777612</v>
+        <v>0.1730028876472073</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N35">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O35">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P35">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q35">
-        <v>558.8508196338272</v>
+        <v>588.4891491675012</v>
       </c>
       <c r="R35">
-        <v>558.8508196338272</v>
+        <v>3530.934895005007</v>
       </c>
       <c r="S35">
-        <v>0.06969942647841317</v>
+        <v>0.06919871362122067</v>
       </c>
       <c r="T35">
-        <v>0.06969942647841317</v>
+        <v>0.06166148244409021</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.94338605002174</v>
+        <v>8.228197000000002</v>
       </c>
       <c r="H36">
-        <v>7.94338605002174</v>
+        <v>16.456394</v>
       </c>
       <c r="I36">
-        <v>0.2060908345777612</v>
+        <v>0.2073420921118374</v>
       </c>
       <c r="J36">
-        <v>0.2060908345777612</v>
+        <v>0.1730028876472073</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N36">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O36">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P36">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q36">
-        <v>69.20428473601665</v>
+        <v>73.57312835770968</v>
       </c>
       <c r="R36">
-        <v>69.20428473601665</v>
+        <v>441.4387701462581</v>
       </c>
       <c r="S36">
-        <v>0.008631102946417144</v>
+        <v>0.008651248449771106</v>
       </c>
       <c r="T36">
-        <v>0.008631102946417144</v>
+        <v>0.007708941055248676</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.94338605002174</v>
+        <v>8.228197000000002</v>
       </c>
       <c r="H37">
-        <v>7.94338605002174</v>
+        <v>16.456394</v>
       </c>
       <c r="I37">
-        <v>0.2060908345777612</v>
+        <v>0.2073420921118374</v>
       </c>
       <c r="J37">
-        <v>0.2060908345777612</v>
+        <v>0.1730028876472073</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N37">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O37">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P37">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q37">
-        <v>204.7469014218902</v>
+        <v>213.0858686690085</v>
       </c>
       <c r="R37">
-        <v>204.7469014218902</v>
+        <v>852.3434746760341</v>
       </c>
       <c r="S37">
-        <v>0.02553586950393754</v>
+        <v>0.02505614253655309</v>
       </c>
       <c r="T37">
-        <v>0.02553586950393754</v>
+        <v>0.01488465909536307</v>
       </c>
     </row>
   </sheetData>
